--- a/src/excel_template/cdQC_trend/Dynamic Short Trend.xlsx
+++ b/src/excel_template/cdQC_trend/Dynamic Short Trend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="330" windowWidth="20730" windowHeight="10050"/>
+    <workbookView xWindow="5060" yWindow="330" windowWidth="20730" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -328,6 +328,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -463,6 +464,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
@@ -1120,6 +1122,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1493,6 +1496,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -1591,6 +1595,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1964,6 +1969,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -2062,6 +2068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2435,6 +2442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -3475,6 +3483,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3848,6 +3857,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -3946,6 +3956,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4319,6 +4330,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -4417,6 +4429,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4790,6 +4803,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -4879,6 +4893,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5022,6 +5037,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
@@ -6047,6 +6063,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6420,6 +6437,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -6518,6 +6536,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6891,6 +6910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -6989,6 +7009,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7362,6 +7383,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0_ " sourceLinked="0"/>
@@ -9811,6 +9833,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10004,6 +10027,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -14775,6 +14799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -15148,6 +15173,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -19975,6 +20001,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -20349,6 +20376,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
@@ -21392,6 +21420,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -21765,6 +21794,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -21858,6 +21888,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22231,6 +22262,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
@@ -22324,6 +22356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -22637,6 +22670,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
@@ -22730,6 +22764,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -23043,6 +23078,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_ " sourceLinked="0"/>
@@ -25201,7 +25237,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="HP6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -27028,7 +27064,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27050,9 +27086,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y90" sqref="Y90"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -27067,9 +27101,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BT104" sqref="BT104"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
